--- a/Data from Paho/excels/2014/excel/2014-jul-25-cha-CHIKV-authoch-imported-cases-ew-30.xlsx
+++ b/Data from Paho/excels/2014/excel/2014-jul-25-cha-CHIKV-authoch-imported-cases-ew-30.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chikonguniya\Data from Paho\excels\2014\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{297155C8-A611-4ED7-B529-6930FF2E2A34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>Country/Territory</t>
   </si>
@@ -177,9 +183,6 @@
   </si>
   <si>
     <t>(confirmed)</t>
-  </si>
-  <si>
-    <t>Incidence Rate</t>
   </si>
   <si>
     <t>2,709.7</t>
@@ -422,8 +425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +463,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -506,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,9 +549,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,6 +601,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,721 +794,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
         <v>39</v>
       </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
       <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
+        <v>282</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>282</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="E9">
+        <v>283</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>283</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="I13">
+      <c r="F13">
         <v>31.2</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <v>4.4</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>71</v>
       </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
       <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
+      <c r="D22">
+        <v>665</v>
+      </c>
       <c r="E22">
-        <v>665</v>
+        <v>216</v>
       </c>
       <c r="F22">
-        <v>216</v>
+        <v>267.10000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>267.1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23">
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
         <v>7</v>
       </c>
-      <c r="K23">
+      <c r="H23">
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="H24">
-        <v>627.2</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="F24">
+        <v>627.20000000000005</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25">
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
         <v>13</v>
       </c>
-      <c r="K25">
+      <c r="H25">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
+      <c r="C26">
+        <v>643</v>
+      </c>
       <c r="D26">
-        <v>643</v>
+        <v>215</v>
       </c>
       <c r="E26">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>17</v>
-      </c>
-      <c r="I26">
         <v>23.3</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27">
+        <v>730</v>
+      </c>
       <c r="D27">
-        <v>730</v>
-      </c>
-      <c r="E27">
         <v>142</v>
       </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>793</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
         <v>36</v>
       </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28">
-        <v>793</v>
-      </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>244</v>
+      </c>
+      <c r="F29" t="s">
         <v>59</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29">
-        <v>244</v>
+      <c r="G29">
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
       <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="F35">
-        <v>48</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="E36">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>55</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1470,30 +1494,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -1508,15 +1525,15 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1531,12 +1548,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1554,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1577,20 +1594,20 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -1605,18 +1622,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1625,9 +1642,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1648,9 +1665,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1671,9 +1688,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1694,9 +1711,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1717,9 +1734,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1734,21 +1751,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1757,9 +1774,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1777,12 +1794,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -1797,9 +1814,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -1817,12 +1834,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1837,12 +1854,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>31</v>
@@ -1860,12 +1877,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>214</v>
@@ -1874,7 +1891,7 @@
         <v>30</v>
       </c>
       <c r="G19">
-        <v>149.7</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1883,12 +1900,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>329</v>
@@ -1906,12 +1923,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21">
         <v>123</v>
@@ -1926,9 +1943,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1949,9 +1966,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -1969,12 +1986,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1995,12 +2012,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -2015,9 +2032,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -2038,12 +2055,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>496</v>
@@ -2058,18 +2075,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
         <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>124</v>
       </c>
       <c r="F28">
         <v>643</v>
@@ -2081,7 +2098,7 @@
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
